--- a/python_study/파이썬_분석/DIAVGPERDAY.xlsx
+++ b/python_study/파이썬_분석/DIAVGPERDAY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,55 +491,46 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Test_DI</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>DI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2.3592</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.3592</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20211201</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1708</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20211201</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1708</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>61.3</v>
@@ -550,52 +541,41 @@
       <c r="L2" t="n">
         <v>50.994365</v>
       </c>
+      <c r="M2" t="n">
+        <v>50.994365</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8.0366</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.0366</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20211202</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2316</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D3" t="n">
+        <v>20211202</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2316</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>81.18000000000001</v>
@@ -606,52 +586,41 @@
       <c r="L3" t="n">
         <v>52.73222475999999</v>
       </c>
+      <c r="M3" t="n">
+        <v>52.73222475999999</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.0425</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20211203</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1618</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20211203</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>49.87</v>
@@ -662,52 +631,41 @@
       <c r="L4" t="n">
         <v>53.99180681</v>
       </c>
+      <c r="M4" t="n">
+        <v>53.99180681</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3.7735</t>
-        </is>
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.7735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20211204</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1702</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D5" t="n">
+        <v>20211204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>61.99</v>
@@ -718,52 +676,41 @@
       <c r="L5" t="n">
         <v>53.096141</v>
       </c>
+      <c r="M5" t="n">
+        <v>53.096141</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3.038</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.038</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20211205</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1612</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D6" t="n">
+        <v>20211205</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>54.7</v>
@@ -774,52 +721,41 @@
       <c r="L6" t="n">
         <v>54.77735180000001</v>
       </c>
+      <c r="M6" t="n">
+        <v>54.77735180000001</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7.1366</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.1366</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20211206</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1626</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D7" t="n">
+        <v>20211206</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1626</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>67.72</v>
@@ -830,52 +766,41 @@
       <c r="L7" t="n">
         <v>56.03925536</v>
       </c>
+      <c r="M7" t="n">
+        <v>56.03925536</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7.0637</t>
-        </is>
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.0637</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20211207</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D8" t="n">
+        <v>20211207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>64.39</v>
@@ -886,52 +811,41 @@
       <c r="L8" t="n">
         <v>56.99481875</v>
       </c>
+      <c r="M8" t="n">
+        <v>56.99481875</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6.5231</t>
-        </is>
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.5231</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20211208</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1624</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D9" t="n">
+        <v>20211208</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1624</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>60.3</v>
@@ -942,52 +856,41 @@
       <c r="L9" t="n">
         <v>57.6279346</v>
       </c>
+      <c r="M9" t="n">
+        <v>57.6279346</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9.3717</t>
-        </is>
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.371700000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20211209</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1548</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D10" t="n">
+        <v>20211209</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1548</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>74.58</v>
@@ -998,52 +901,41 @@
       <c r="L10" t="n">
         <v>57.20346406</v>
       </c>
+      <c r="M10" t="n">
+        <v>57.20346406</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10.1623</t>
-        </is>
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.1623</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20211210</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D11" t="n">
+        <v>20211210</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>78.93000000000001</v>
@@ -1054,52 +946,41 @@
       <c r="L11" t="n">
         <v>57.18130951000001</v>
       </c>
+      <c r="M11" t="n">
+        <v>57.18130951000001</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9.0233</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.023300000000001</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20211211</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1618</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20211211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>72.39</v>
@@ -1110,52 +991,41 @@
       <c r="L12" t="n">
         <v>57.321484</v>
       </c>
+      <c r="M12" t="n">
+        <v>57.321484</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10.1671</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.1671</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20211212</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D13" t="n">
+        <v>20211212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>140</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>79.31999999999999</v>
@@ -1166,52 +1036,41 @@
       <c r="L13" t="n">
         <v>56.892175</v>
       </c>
+      <c r="M13" t="n">
+        <v>56.892175</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1.5034</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5034</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20211213</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1628</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D14" t="n">
+        <v>20211213</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>56.93</v>
@@ -1222,52 +1081,41 @@
       <c r="L14" t="n">
         <v>51.71651109</v>
       </c>
+      <c r="M14" t="n">
+        <v>51.71651109</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>9.4485</t>
-        </is>
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.448499999999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20211214</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2346</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D15" t="n">
+        <v>20211214</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2346</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>82.84</v>
@@ -1278,52 +1126,41 @@
       <c r="L15" t="n">
         <v>54.71622188</v>
       </c>
+      <c r="M15" t="n">
+        <v>54.71622188</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9.7486</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.7486</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20211215</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1640</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D16" t="n">
+        <v>20211215</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>75.09999999999999</v>
@@ -1334,52 +1171,41 @@
       <c r="L16" t="n">
         <v>57.4959788</v>
       </c>
+      <c r="M16" t="n">
+        <v>57.4959788</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>6.6507</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.6507</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20211216</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1636</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D17" t="n">
+        <v>20211216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1636</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>63.8</v>
@@ -1390,52 +1216,41 @@
       <c r="L17" t="n">
         <v>56.7249672</v>
       </c>
+      <c r="M17" t="n">
+        <v>56.7249672</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5.4979</t>
-        </is>
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.4979</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20211217</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D18" t="n">
+        <v>20211217</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>65.17</v>
@@ -1446,52 +1261,41 @@
       <c r="L18" t="n">
         <v>54.25371221</v>
       </c>
+      <c r="M18" t="n">
+        <v>54.25371221</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4.0777</t>
-        </is>
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.0777</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20211218</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2344</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D19" t="n">
+        <v>20211218</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>81.55</v>
@@ -1502,52 +1306,41 @@
       <c r="L19" t="n">
         <v>46.1538464</v>
       </c>
+      <c r="M19" t="n">
+        <v>46.1538464</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5.913</t>
-        </is>
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.913</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20211219</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20211219</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2354</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>80.59</v>
@@ -1558,52 +1351,41 @@
       <c r="L20" t="n">
         <v>49.53561038</v>
       </c>
+      <c r="M20" t="n">
+        <v>49.53561038</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>7.4569</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.4569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20211220</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1706</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D21" t="n">
+        <v>20211220</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1706</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>72.95</v>
@@ -1614,52 +1396,41 @@
       <c r="L21" t="n">
         <v>54.82152585</v>
       </c>
+      <c r="M21" t="n">
+        <v>54.82152585</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>7.794</t>
-        </is>
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.794</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20211221</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1622</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D22" t="n">
+        <v>20211221</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>67.43000000000001</v>
@@ -1670,52 +1441,41 @@
       <c r="L22" t="n">
         <v>57.06257217</v>
       </c>
+      <c r="M22" t="n">
+        <v>57.06257217</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3.8589</t>
-        </is>
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.8589</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20211222</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1632</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D23" t="n">
+        <v>20211222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>57.97</v>
@@ -1726,52 +1486,41 @@
       <c r="L23" t="n">
         <v>54.78319436</v>
       </c>
+      <c r="M23" t="n">
+        <v>54.78319436</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3.1576</t>
-        </is>
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.1576</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20211223</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1630</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D24" t="n">
+        <v>20211223</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>57.25</v>
@@ -1782,52 +1531,41 @@
       <c r="L24" t="n">
         <v>53.76718175</v>
       </c>
+      <c r="M24" t="n">
+        <v>53.76718175</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>7.7958</t>
-        </is>
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.7958</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20211224</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="D25" t="n">
+        <v>20211224</v>
+      </c>
+      <c r="E25" t="n">
+        <v>48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>서울경마장</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I25" t="n">
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>79.44</v>
@@ -1836,6 +1574,9 @@
         <v>11.31</v>
       </c>
       <c r="L25" t="n">
+        <v>52.99599736</v>
+      </c>
+      <c r="M25" t="n">
         <v>52.99599736</v>
       </c>
     </row>

--- a/python_study/파이썬_분석/DIAVGPERDAY.xlsx
+++ b/python_study/파이썬_분석/DIAVGPERDAY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +491,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Test_DI</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>DI</t>
         </is>
       </c>
@@ -541,9 +536,6 @@
       <c r="L2" t="n">
         <v>50.994365</v>
       </c>
-      <c r="M2" t="n">
-        <v>50.994365</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -586,9 +578,6 @@
       <c r="L3" t="n">
         <v>52.73222475999999</v>
       </c>
-      <c r="M3" t="n">
-        <v>52.73222475999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -631,9 +620,6 @@
       <c r="L4" t="n">
         <v>53.99180681</v>
       </c>
-      <c r="M4" t="n">
-        <v>53.99180681</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -676,9 +662,6 @@
       <c r="L5" t="n">
         <v>53.096141</v>
       </c>
-      <c r="M5" t="n">
-        <v>53.096141</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -721,9 +704,6 @@
       <c r="L6" t="n">
         <v>54.77735180000001</v>
       </c>
-      <c r="M6" t="n">
-        <v>54.77735180000001</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -766,9 +746,6 @@
       <c r="L7" t="n">
         <v>56.03925536</v>
       </c>
-      <c r="M7" t="n">
-        <v>56.03925536</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -811,9 +788,6 @@
       <c r="L8" t="n">
         <v>56.99481875</v>
       </c>
-      <c r="M8" t="n">
-        <v>56.99481875</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -856,9 +830,6 @@
       <c r="L9" t="n">
         <v>57.6279346</v>
       </c>
-      <c r="M9" t="n">
-        <v>57.6279346</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -901,9 +872,6 @@
       <c r="L10" t="n">
         <v>57.20346406</v>
       </c>
-      <c r="M10" t="n">
-        <v>57.20346406</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -946,9 +914,6 @@
       <c r="L11" t="n">
         <v>57.18130951000001</v>
       </c>
-      <c r="M11" t="n">
-        <v>57.18130951000001</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -991,9 +956,6 @@
       <c r="L12" t="n">
         <v>57.321484</v>
       </c>
-      <c r="M12" t="n">
-        <v>57.321484</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1036,9 +998,6 @@
       <c r="L13" t="n">
         <v>56.892175</v>
       </c>
-      <c r="M13" t="n">
-        <v>56.892175</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1081,9 +1040,6 @@
       <c r="L14" t="n">
         <v>51.71651109</v>
       </c>
-      <c r="M14" t="n">
-        <v>51.71651109</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1126,9 +1082,6 @@
       <c r="L15" t="n">
         <v>54.71622188</v>
       </c>
-      <c r="M15" t="n">
-        <v>54.71622188</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1171,9 +1124,6 @@
       <c r="L16" t="n">
         <v>57.4959788</v>
       </c>
-      <c r="M16" t="n">
-        <v>57.4959788</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1216,9 +1166,6 @@
       <c r="L17" t="n">
         <v>56.7249672</v>
       </c>
-      <c r="M17" t="n">
-        <v>56.7249672</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1261,9 +1208,6 @@
       <c r="L18" t="n">
         <v>54.25371221</v>
       </c>
-      <c r="M18" t="n">
-        <v>54.25371221</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1306,9 +1250,6 @@
       <c r="L19" t="n">
         <v>46.1538464</v>
       </c>
-      <c r="M19" t="n">
-        <v>46.1538464</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1351,9 +1292,6 @@
       <c r="L20" t="n">
         <v>49.53561038</v>
       </c>
-      <c r="M20" t="n">
-        <v>49.53561038</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1396,9 +1334,6 @@
       <c r="L21" t="n">
         <v>54.82152585</v>
       </c>
-      <c r="M21" t="n">
-        <v>54.82152585</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1441,9 +1376,6 @@
       <c r="L22" t="n">
         <v>57.06257217</v>
       </c>
-      <c r="M22" t="n">
-        <v>57.06257217</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1486,9 +1418,6 @@
       <c r="L23" t="n">
         <v>54.78319436</v>
       </c>
-      <c r="M23" t="n">
-        <v>54.78319436</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1531,9 +1460,6 @@
       <c r="L24" t="n">
         <v>53.76718175</v>
       </c>
-      <c r="M24" t="n">
-        <v>53.76718175</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1574,9 +1500,6 @@
         <v>11.31</v>
       </c>
       <c r="L25" t="n">
-        <v>52.99599736</v>
-      </c>
-      <c r="M25" t="n">
         <v>52.99599736</v>
       </c>
     </row>
